--- a/AfDD_2024_Annex_Table_Tab30.xlsx
+++ b/AfDD_2024_Annex_Table_Tab30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71964F23-3F7D-4F0F-A877-3C6EF7A3D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9FD5E4-9AED-4CF5-991A-FB9989F1088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{004C3C73-A30A-4A64-BBBD-CB0F9CE5C5F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF0F7A84-561E-4EC8-A206-8340F3D98939}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B49CAE4-C03D-40D5-B915-843785493853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888DD820-C2D8-471A-8ECC-E4ED57E85714}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10219,12 +10219,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F9D093CF-E95C-4BF6-B42A-D8A0BD4CB2EA}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{292F5558-46EC-4364-89EB-8B5004700609}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{834B6726-FE02-4746-97B1-9F4BB2987179}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{0022C434-2772-44A6-9C12-A9126EACF28F}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{D2D63DEC-FCBE-40D0-BB8F-D72103A992C5}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B8EE0B14-EAAA-493C-A105-48FAA6981E85}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DE2CE43D-747C-4D6E-8B39-A2CA2D1FDCC2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7C8300F5-A274-4D14-BF4D-74F060D8CFA3}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4AC38DF7-EB28-4487-8A12-98E941187061}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{8E46CD5A-0B73-4F9A-AD73-A59D5243915F}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{59FD0828-49C4-41C6-8D92-0EA2E10DB0C9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B0840F30-9B89-4D83-8234-5A5BD0CBF9BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab30.xlsx
+++ b/AfDD_2024_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9FD5E4-9AED-4CF5-991A-FB9989F1088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B17731-511B-4BA0-8221-19C3C7D0D67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF0F7A84-561E-4EC8-A206-8340F3D98939}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{95B4ACFE-87A3-45BD-8B51-56B31FC6B61B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1324,10 +1324,10 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888DD820-C2D8-471A-8ECC-E4ED57E85714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48671721-5378-430A-8E5B-80336E88D545}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1655,18 +1655,18 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="12.42578125" style="128" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="126" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="12.42578125" style="129" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="127" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.42578125" style="129" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10102,7 +10102,7 @@
       <c r="AA110" s="124"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B111" s="129" t="s">
+      <c r="B111" s="126" t="s">
         <v>189</v>
       </c>
       <c r="C111" s="122"/>
@@ -10132,7 +10132,7 @@
       <c r="AA111" s="124"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="126" t="s">
         <v>186</v>
       </c>
       <c r="C112" s="122"/>
@@ -10219,12 +10219,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DE2CE43D-747C-4D6E-8B39-A2CA2D1FDCC2}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7C8300F5-A274-4D14-BF4D-74F060D8CFA3}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4AC38DF7-EB28-4487-8A12-98E941187061}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{8E46CD5A-0B73-4F9A-AD73-A59D5243915F}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{59FD0828-49C4-41C6-8D92-0EA2E10DB0C9}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B0840F30-9B89-4D83-8234-5A5BD0CBF9BC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8600B19B-4E6E-4B85-8794-DBEC30924D7A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B51A9CC0-287C-4519-9423-DDBEB3181FC9}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F2B3051F-0511-4CE6-8542-CF1B4ECBBAA7}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{69317787-5F8C-4AAD-BCD7-8A4504E539B8}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F6BCCF4E-AD4C-4B5E-A0BE-F09CC192E8F4}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{4C825E44-0140-4791-B5D0-4C22896761D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab30.xlsx
+++ b/AfDD_2024_Annex_Table_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B17731-511B-4BA0-8221-19C3C7D0D67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0447C570-26E0-441C-9BCB-A43E8FADB9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{95B4ACFE-87A3-45BD-8B51-56B31FC6B61B}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{5A7E17C8-24FD-43FB-8C82-86EC1E81CE71}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48671721-5378-430A-8E5B-80336E88D545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A1BDB6-A90C-40E2-A9EA-9964DB51D84D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10219,12 +10219,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8600B19B-4E6E-4B85-8794-DBEC30924D7A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B51A9CC0-287C-4519-9423-DDBEB3181FC9}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F2B3051F-0511-4CE6-8542-CF1B4ECBBAA7}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{69317787-5F8C-4AAD-BCD7-8A4504E539B8}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{F6BCCF4E-AD4C-4B5E-A0BE-F09CC192E8F4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{4C825E44-0140-4791-B5D0-4C22896761D5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BB9598D0-FFF8-460B-A0C1-3CFCBE14A335}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B44B6BEC-B4F3-4712-AF8E-9063B702D876}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7D2D3E57-994A-4065-B4B4-31BF78E49EC9}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{EA7BD522-DA95-4D48-BE50-CF02261F5A6F}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{6E89B1AF-D7AF-4F43-A381-B0AA76C05A65}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{631D3C85-AD2F-47D7-8766-03E2B0698A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
